--- a/Tkinter/report.xlsx
+++ b/Tkinter/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>March 2017</t>
   </si>
@@ -759,6 +759,33 @@
   </si>
   <si>
     <t>20 12:56&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 13:09&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 13:11&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 15:57&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 20:56&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 20:57&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 20:58&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 21:43&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 22:50&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t>20 23:04&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
   </si>
   <si>
     <t>Month</t>
@@ -1202,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A310"/>
+  <dimension ref="A1:A326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2762,6 +2789,86 @@
     <row r="310" spans="1:1">
       <c r="A310" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2789,12 +2896,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Tkinter/report.xlsx
+++ b/Tkinter/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>March 2017</t>
   </si>
@@ -786,6 +786,60 @@
   </si>
   <si>
     <t>20 23:04&gt;&gt;&gt; 4FD889D140   Freddy Velez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 15:49&gt;&gt;&gt; 4FD889D140   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 15:50&gt;&gt;&gt; 4FD889D140    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 15:52&gt;&gt;&gt; 4FD889D140    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 15:53&gt;&gt;&gt; 4FD889D140    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 15:55&gt;&gt;&gt; 4FD889D140    </t>
+  </si>
+  <si>
+    <t>27 14:57&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000001A3C9E31198&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:02&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000001F3729CB470&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:04&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000001F86062E7B8&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:05&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000001F86062E7B8&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:07&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x0000016CC6E8BE10&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:08&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x0000016CC6E8BE10&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:11&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000001B511ECA8D0&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:14&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000002665C43AE80&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:15&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x00000216A9873F98&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:16&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x00000250154CEAC8&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:17&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x00000250154CEAC8&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:22&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x00000291DE6F1198&gt;&gt;</t>
+  </si>
+  <si>
+    <t>27 15:25&gt;&gt;&gt; 4FD889D140   &lt;bound method studentGUI.prompt_with_timeout of &lt;timer.studentGUI object at 0x000001DDB7CF8A58&gt;&gt;</t>
   </si>
   <si>
     <t>Month</t>
@@ -1229,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A326"/>
+  <dimension ref="A1:A347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2869,6 +2923,111 @@
     <row r="326" spans="1:1">
       <c r="A326" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2896,12 +3055,12 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
